--- a/docs/hardware/AC Voltage Zero Cross Detector/BOM-8.xlsx
+++ b/docs/hardware/AC Voltage Zero Cross Detector/BOM-8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJ\Documents\CATAGORIES\Building Blocks\ZERO CROSSING\EL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97ABA0-1ED7-4A91-B36E-853EE79A9C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8404A158-C9BE-498B-A1A9-49F0D204587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIR" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>1N4007MSTR-ND</t>
   </si>
   <si>
-    <t>732-2995-1-ND</t>
-  </si>
-  <si>
     <t>ROHM</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>399-9651-ND</t>
+  </si>
+  <si>
+    <t>732-1696-1-ND</t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,19 +1161,19 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G22"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1224,13 +1224,13 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1247,13 +1247,13 @@
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1270,13 +1270,13 @@
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1293,11 +1293,11 @@
         <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1311,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1360,11 +1360,11 @@
         <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1381,13 +1381,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1401,16 +1401,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1427,13 +1427,13 @@
         <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1450,13 +1450,13 @@
         <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1473,13 +1473,13 @@
         <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1496,11 +1496,11 @@
         <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1517,11 +1517,11 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1538,11 +1538,11 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1559,11 +1559,11 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1594,16 +1594,16 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1620,13 +1620,13 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1640,10 +1640,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>53</v>
